--- a/2023-07-03 Monday.xlsx
+++ b/2023-07-03 Monday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,17 +479,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-07-03 15:22:42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-07-03 15:23:34</t>
-        </is>
-      </c>
+          <t>2023-07-03 15:42:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -507,12 +503,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-07-03 15:22:28</t>
+          <t>2023-07-03 15:22:42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-07-03 15:22:37</t>
+          <t>2023-07-03 15:23:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -535,15 +531,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2023-07-03 15:22:28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-07-03 15:22:37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>303</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>王*佑</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>2023-07-03 15:22:18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-07-03 15:22:23</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>OUT</t>
         </is>

--- a/2023-07-03 Monday.xlsx
+++ b/2023-07-03 Monday.xlsx
@@ -482,10 +482,14 @@
           <t>2023-07-03 15:42:30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-07-03 15:50:05</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
     </row>
